--- a/11DTA-Meta/DD.xlsx
+++ b/11DTA-Meta/DD.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayame\Documents\github\mephas_web\11DTA-Meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayame_yfbb0\Documents\github\mephas_web\11DTA-Meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E6A26D-FA8A-4758-9C14-1E15B737F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="3030" windowWidth="21600" windowHeight="11835" xr2:uid="{3DC04805-84C8-493E-95A1-BDC0F494D690}"/>
+    <workbookView xWindow="31500" yWindow="3030" windowWidth="21600" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="output1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>p.10</t>
     <phoneticPr fontId="1"/>
@@ -108,13 +109,121 @@
   </si>
   <si>
     <t>se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Preview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Descriptive Statistics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forest Plots for Se/Sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forest Plots for Univariate measures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uiprob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RawData</t>
+  </si>
+  <si>
+    <t>data()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renderDataTable</t>
+  </si>
+  <si>
+    <t>md.text</t>
+  </si>
+  <si>
+    <t>renderPrint</t>
+  </si>
+  <si>
+    <t>md()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SROC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meta_sp</t>
+  </si>
+  <si>
+    <t>meta_sesp_plot</t>
+  </si>
+  <si>
+    <t>renderPlot</t>
+  </si>
+  <si>
+    <t>renderPlot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renderUI</t>
+  </si>
+  <si>
+    <t>meta_se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o$meta_se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o$meta_sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>md()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meta_LDOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meta_negLR</t>
+  </si>
+  <si>
+    <t>meta_posLR</t>
+  </si>
+  <si>
+    <t>meta_uni_plot</t>
+  </si>
+  <si>
+    <t>o$meta_LDOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o$meta_negLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o$meta_posLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paste0(p,input$Sauc1,input$allsingle,studyId()</t>
+  </si>
+  <si>
+    <t>paste0(p,c1.square,input$Sauc1,input$allsingle,studyId())</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,16 +580,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE5F94-F02B-4135-BE5F-93EA4EECD9A5}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -508,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -522,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -532,8 +641,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -543,8 +655,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -552,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -566,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -577,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -592,4 +707,173 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>